--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,148 +43,142 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>die</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>disgusting</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>cancelled</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stress</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>worse</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>cut</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>lower</t>
   </si>
   <si>
     <t>affected</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>facing</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
@@ -193,9 +187,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -205,9 +196,27 @@
     <t>oil</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -226,48 +235,48 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
+    <t>strong</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -277,142 +286,145 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>helpful</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>security</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>security</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>yourself</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -770,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +790,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -889,13 +901,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -907,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -939,13 +951,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -989,13 +1001,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1007,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -1039,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -1089,13 +1101,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1107,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1131,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1139,13 +1151,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.88</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1157,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.9302325581395349</v>
+        <v>0.9375</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1181,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1189,13 +1201,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8695652173913043</v>
+        <v>0.88</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,16 +1222,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1260,16 +1272,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1310,16 +1322,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.9112271540469974</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L12">
-        <v>349</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>349</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1360,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1389,13 +1401,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1407,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.8962264150943396</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1431,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1460,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K15">
         <v>0.8947368421052632</v>
@@ -1489,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -1507,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1560,16 +1572,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1581,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1589,13 +1601,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.8873239436619719</v>
+        <v>0.8875</v>
       </c>
       <c r="L18">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="M18">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1631,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1639,13 +1651,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7368421052631579</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1657,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.8828125</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1689,13 +1701,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7189922480620154</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C20">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1707,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.88125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L20">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="M20">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1731,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1739,13 +1751,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7142857142857143</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C21">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1757,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.8666666666666667</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1781,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,13 +1801,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.711864406779661</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1807,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>0.8620689655172413</v>
@@ -1839,13 +1851,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7037037037037037</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1857,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K23">
         <v>0.8611111111111112</v>
@@ -1889,13 +1901,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1907,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K24">
         <v>0.8536585365853658</v>
@@ -1939,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1957,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.8235294117647058</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1981,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1989,13 +2001,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2007,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.8095238095238095</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2031,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2039,13 +2051,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6956521739130435</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2057,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2081,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,13 +2101,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2107,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7948717948717948</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2131,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2139,13 +2151,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6862745098039216</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2157,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2189,13 +2201,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6842105263157895</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2207,31 +2219,31 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>61</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>6</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2239,13 +2251,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6818181818181818</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2257,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K31">
-        <v>0.78</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2281,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2289,13 +2301,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2307,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K32">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2331,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2339,13 +2351,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2357,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L33">
         <v>13</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33">
-        <v>0.7705882352941177</v>
-      </c>
-      <c r="L33">
-        <v>262</v>
-      </c>
       <c r="M33">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2381,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2389,13 +2401,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6451612903225806</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2407,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2431,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,13 +2451,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6375838926174496</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C35">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2457,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2481,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2489,13 +2501,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2507,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2531,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2539,13 +2551,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2557,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2581,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2589,13 +2601,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5806451612903226</v>
+        <v>0.625</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2607,19 +2619,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K38">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2631,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2639,13 +2651,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5769230769230769</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2657,31 +2669,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39">
+        <v>0.725</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>11</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K39">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2710,16 +2722,16 @@
         <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K40">
-        <v>0.735593220338983</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L40">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="M40">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2731,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2760,16 +2772,16 @@
         <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>0.7272727272727273</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2781,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2789,13 +2801,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5638888888888889</v>
+        <v>0.5611111111111111</v>
       </c>
       <c r="C42">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2807,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K42">
-        <v>0.7272727272727273</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2831,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2839,13 +2851,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2857,19 +2869,19 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L43">
         <v>35</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K43">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L43">
-        <v>68</v>
-      </c>
       <c r="M43">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2881,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2889,13 +2901,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5185185185185185</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2907,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2939,13 +2951,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5161290322580645</v>
+        <v>0.52</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2957,19 +2969,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.7112970711297071</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L45">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2981,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2989,7 +3001,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.509090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -3007,19 +3019,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.7037037037037037</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3031,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3039,13 +3051,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3057,19 +3069,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.6966292134831461</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L47">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3081,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3089,7 +3101,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4814814814814815</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C48">
         <v>13</v>
@@ -3107,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>0.6956521739130435</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3131,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3139,13 +3151,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4375</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3157,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3181,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3189,13 +3201,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4363636363636363</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3207,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.6615384615384615</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3231,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3239,13 +3251,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3939393939393939</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3257,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>0.6571428571428571</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3281,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3289,13 +3301,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3376623376623377</v>
+        <v>0.25</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3307,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K52">
-        <v>0.6538461538461539</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3331,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3339,13 +3351,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3222222222222222</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3357,19 +3369,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>0.6451612903225806</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3389,13 +3401,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2698412698412698</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C54">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3407,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K54">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3431,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3439,37 +3451,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.25</v>
+        <v>0.01475595913734393</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>60</v>
+        <v>868</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3481,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3489,37 +3501,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1501340482573726</v>
+        <v>0.01159420289855072</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>317</v>
+        <v>3069</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K56">
-        <v>0.6222222222222222</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3531,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3539,37 +3551,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04333333333333333</v>
+        <v>0.008834665544804375</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>287</v>
+        <v>2356</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K57">
-        <v>0.6190476190476191</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3581,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3589,115 +3601,187 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005466778805719092</v>
+        <v>0.008407286314806165</v>
       </c>
       <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>0.1</v>
+      </c>
+      <c r="F58">
+        <v>0.9</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2123</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K58">
+        <v>0.5483870967741935</v>
+      </c>
+      <c r="L58">
+        <v>17</v>
+      </c>
+      <c r="M58">
+        <v>17</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.005354200988467875</v>
+      </c>
+      <c r="C59">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D59">
+        <v>30</v>
+      </c>
+      <c r="E59">
+        <v>0.57</v>
+      </c>
+      <c r="F59">
+        <v>0.43</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2415</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>23</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.003806089743589744</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>0.17</v>
+      </c>
+      <c r="F60">
+        <v>0.83</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>4973</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L60">
         <v>14</v>
       </c>
-      <c r="E58">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F58">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>2365</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K58">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="L58">
-        <v>16</v>
-      </c>
-      <c r="M58">
-        <v>16</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K59">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L59">
-        <v>16</v>
-      </c>
-      <c r="M59">
-        <v>16</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="M60">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K60">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L60">
-        <v>24</v>
-      </c>
-      <c r="M60">
-        <v>24</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>18</v>
-      </c>
-    </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.002714230321830167</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61">
+        <v>0.33</v>
+      </c>
+      <c r="F61">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>5144</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K61">
-        <v>0.5652173913043478</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3709,21 +3793,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K62">
-        <v>0.5483870967741935</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M62">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3735,21 +3819,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>0.5416666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3761,21 +3845,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K64">
-        <v>0.5342465753424658</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L64">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3787,21 +3871,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K65">
-        <v>0.5</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3813,21 +3897,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>0.4754098360655737</v>
+        <v>0.359375</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3839,21 +3923,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K67">
-        <v>0.4487179487179487</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3865,21 +3949,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K68">
-        <v>0.4375</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L68">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3891,21 +3975,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K69">
-        <v>0.423728813559322</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3917,33 +4001,85 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K70">
-        <v>0.3333333333333333</v>
+        <v>0.02251876563803169</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>38</v>
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71">
+        <v>0.007879924953095686</v>
+      </c>
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>29</v>
+      </c>
+      <c r="N71">
+        <v>0.72</v>
+      </c>
+      <c r="O71">
+        <v>0.28</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K72">
+        <v>0.006990131578947368</v>
+      </c>
+      <c r="L72">
+        <v>17</v>
+      </c>
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72">
+        <v>0.57</v>
+      </c>
+      <c r="O72">
+        <v>0.43</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2415</v>
       </c>
     </row>
   </sheetData>
